--- a/Team-Data/2020-21/1-13-2020-21.xlsx
+++ b/Team-Data/2020-21/1-13-2020-21.xlsx
@@ -3049,16 +3049,16 @@
         <v>110.7</v>
       </c>
       <c r="BN3" t="n">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
       <c r="BO3" t="n">
-        <v>108.2</v>
+        <v>108</v>
       </c>
       <c r="BP3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="BR3" t="n">
         <v>2</v>
@@ -3073,13 +3073,13 @@
         <v>16.8</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="BW3" t="n">
         <v>0.736</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.518</v>
+        <v>0.517</v>
       </c>
       <c r="BY3" t="n">
         <v>0.156</v>
@@ -3091,16 +3091,16 @@
         <v>0.577</v>
       </c>
       <c r="CB3" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="CC3" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="CD3" t="n">
-        <v>83.83</v>
+        <v>83.92</v>
       </c>
       <c r="CE3" t="n">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="CF3" t="n">
         <v>0.508</v>
@@ -3203,7 +3203,7 @@
         <v>0.156</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.303</v>
+        <v>0.301</v>
       </c>
       <c r="DM3" t="n">
         <v>0.538</v>
@@ -3212,7 +3212,7 @@
         <v>0.266</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="DP3" t="n">
         <v>0.264</v>
@@ -3251,7 +3251,7 @@
         <v>21</v>
       </c>
       <c r="EB3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="EC3" t="n">
         <v>17</v>
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="HI3" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="HJ3" t="n">
         <v>33.6</v>
@@ -3648,16 +3648,16 @@
         <v>8.699999999999999</v>
       </c>
       <c r="IY3" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="IZ3" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="JA3" t="n">
         <v>23.1</v>
       </c>
       <c r="JB3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="JC3" t="n">
         <v>7.8</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="KB3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="KC3" t="n">
         <v>17</v>
@@ -9386,16 +9386,16 @@
         <v>11.3</v>
       </c>
       <c r="S10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U10" t="n">
         <v>23.7</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
@@ -9528,19 +9528,19 @@
         <v>543</v>
       </c>
       <c r="BM10" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="BN10" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="BO10" t="n">
         <v>111.1</v>
       </c>
       <c r="BP10" t="n">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="BR10" t="n">
         <v>-5.8</v>
@@ -9549,22 +9549,22 @@
         <v>0.617</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="BU10" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="BV10" t="n">
         <v>0.277</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.483</v>
+        <v>0.484</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="BZ10" t="n">
         <v>0.485</v>
@@ -9576,13 +9576,13 @@
         <v>101.4</v>
       </c>
       <c r="CC10" t="n">
-        <v>99.40000000000001</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="CD10" t="n">
-        <v>82.84</v>
+        <v>82.91</v>
       </c>
       <c r="CE10" t="n">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="CF10" t="n">
         <v>0.452</v>
@@ -9624,7 +9624,7 @@
         <v>9</v>
       </c>
       <c r="CS10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="CT10" t="n">
         <v>24</v>
@@ -9682,7 +9682,7 @@
         <v>0.247</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.134</v>
+        <v>0.135</v>
       </c>
       <c r="DL10" t="n">
         <v>0.277</v>
@@ -9697,7 +9697,7 @@
         <v>0.165</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.269</v>
+        <v>0.267</v>
       </c>
       <c r="DQ10" t="n">
         <v>10</v>
@@ -9736,7 +9736,7 @@
         <v>2</v>
       </c>
       <c r="EC10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="ED10" t="n">
         <v>10</v>
@@ -10000,13 +10000,13 @@
         <v>49.4</v>
       </c>
       <c r="HI10" t="n">
-        <v>112</v>
+        <v>111.9</v>
       </c>
       <c r="HJ10" t="n">
-        <v>32.7</v>
+        <v>32.8</v>
       </c>
       <c r="HK10" t="n">
-        <v>0.731</v>
+        <v>0.733</v>
       </c>
       <c r="HL10" t="n">
         <v>8.4</v>
@@ -10048,7 +10048,7 @@
         <v>27</v>
       </c>
       <c r="HY10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="HZ10" t="n">
         <v>9</v>
@@ -13437,7 +13437,7 @@
         <v>19</v>
       </c>
       <c r="EB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="EC14" t="n">
         <v>15</v>
@@ -16106,7 +16106,7 @@
         <v>29</v>
       </c>
       <c r="CS17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CT17" t="n">
         <v>16</v>
@@ -16218,7 +16218,7 @@
         <v>18</v>
       </c>
       <c r="EC17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="ED17" t="n">
         <v>10</v>
@@ -16530,7 +16530,7 @@
         <v>7</v>
       </c>
       <c r="HY17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="HZ17" t="n">
         <v>21</v>
@@ -17625,7 +17625,7 @@
         <v>6</v>
       </c>
       <c r="KB18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="KC18" t="n">
         <v>6</v>
@@ -23181,7 +23181,7 @@
         <v>22</v>
       </c>
       <c r="KB24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="KC24" t="n">
         <v>25</v>
@@ -25209,7 +25209,7 @@
         <v>23</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>12</v>
@@ -29179,7 +29179,7 @@
         <v>30</v>
       </c>
       <c r="EB31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="EC31" t="n">
         <v>5</v>

--- a/Team-Data/2020-21/1-13-2020-21.xlsx
+++ b/Team-Data/2020-21/1-13-2020-21.xlsx
@@ -811,10 +811,10 @@
         <v>4.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -838,16 +838,16 @@
         <v>7</v>
       </c>
       <c r="AM2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>1</v>
       </c>
       <c r="AP2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ2" t="n">
         <v>5</v>
@@ -865,16 +865,16 @@
         <v>17</v>
       </c>
       <c r="AV2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX2" t="n">
         <v>28</v>
       </c>
       <c r="AY2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ2" t="n">
         <v>21</v>
@@ -883,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="BB2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -993,10 +993,10 @@
         <v>1.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF3" t="n">
         <v>1</v>
@@ -1017,37 +1017,37 @@
         <v>6</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>20</v>
       </c>
       <c r="AR3" t="n">
         <v>4</v>
       </c>
       <c r="AS3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV3" t="n">
         <v>22</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>24</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
@@ -1056,13 +1056,13 @@
         <v>4</v>
       </c>
       <c r="AY3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -1097,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538</v>
+        <v>0.5</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1115,85 +1115,85 @@
         <v>42.8</v>
       </c>
       <c r="J4" t="n">
-        <v>87.90000000000001</v>
+        <v>87.7</v>
       </c>
       <c r="K4" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="L4" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="M4" t="n">
-        <v>36.4</v>
+        <v>36.1</v>
       </c>
       <c r="N4" t="n">
         <v>0.393</v>
       </c>
       <c r="O4" t="n">
-        <v>18.6</v>
+        <v>19.2</v>
       </c>
       <c r="P4" t="n">
-        <v>23.4</v>
+        <v>23.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.796</v>
+        <v>0.801</v>
       </c>
       <c r="R4" t="n">
-        <v>8.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="T4" t="n">
         <v>46.4</v>
       </c>
       <c r="U4" t="n">
-        <v>26.2</v>
+        <v>25.9</v>
       </c>
       <c r="V4" t="n">
-        <v>15.8</v>
+        <v>16.6</v>
       </c>
       <c r="W4" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="X4" t="n">
         <v>5.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.8</v>
+        <v>19.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.6</v>
+        <v>118.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>6</v>
       </c>
       <c r="AJ4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK4" t="n">
         <v>4</v>
@@ -1205,19 +1205,19 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS4" t="n">
         <v>5</v>
@@ -1229,10 +1229,10 @@
         <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>7</v>
@@ -1241,13 +1241,13 @@
         <v>6</v>
       </c>
       <c r="AZ4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
         <v>10</v>
       </c>
       <c r="BB4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC4" t="n">
         <v>3</v>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -1279,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.545</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="J5" t="n">
-        <v>87.8</v>
+        <v>86.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.449</v>
       </c>
       <c r="L5" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="M5" t="n">
-        <v>35.8</v>
+        <v>35.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.358</v>
+        <v>0.367</v>
       </c>
       <c r="O5" t="n">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
       <c r="P5" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.733</v>
+        <v>0.745</v>
       </c>
       <c r="R5" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="S5" t="n">
-        <v>33.9</v>
+        <v>33.5</v>
       </c>
       <c r="T5" t="n">
-        <v>44.6</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.5</v>
+        <v>19.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.2</v>
+        <v>108.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.1</v>
+        <v>0.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11</v>
       </c>
-      <c r="AF5" t="n">
-        <v>16</v>
-      </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -1375,64 +1375,64 @@
         <v>25</v>
       </c>
       <c r="AJ5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM5" t="n">
         <v>14</v>
       </c>
       <c r="AN5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AQ5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS5" t="n">
         <v>25</v>
       </c>
-      <c r="AR5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>21</v>
-      </c>
       <c r="AT5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AU5" t="n">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
       </c>
       <c r="BC5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -1539,13 +1539,13 @@
         <v>-5</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
         <v>25</v>
@@ -1557,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>9</v>
@@ -1572,31 +1572,31 @@
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS6" t="n">
         <v>16</v>
       </c>
       <c r="AT6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
         <v>30</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX6" t="n">
         <v>27</v>
@@ -1605,16 +1605,16 @@
         <v>9</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB6" t="n">
         <v>6</v>
       </c>
       <c r="BC6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -1721,25 +1721,25 @@
         <v>-5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
         <v>23</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>21</v>
       </c>
       <c r="AH7" t="n">
         <v>3</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>25</v>
@@ -1769,13 +1769,13 @@
         <v>28</v>
       </c>
       <c r="AT7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AW7" t="n">
         <v>1</v>
@@ -1784,10 +1784,10 @@
         <v>19</v>
       </c>
       <c r="AY7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA7" t="n">
         <v>28</v>
@@ -1796,7 +1796,7 @@
         <v>30</v>
       </c>
       <c r="BC7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -1825,88 +1825,88 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>85.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.451</v>
+        <v>0.456</v>
       </c>
       <c r="L8" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="O8" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="P8" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="S8" t="n">
+        <v>35.2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="V8" t="n">
         <v>13.8</v>
-      </c>
-      <c r="M8" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.348</v>
-      </c>
-      <c r="O8" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="P8" t="n">
-        <v>24.7</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.753</v>
-      </c>
-      <c r="R8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="U8" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="V8" t="n">
-        <v>13.4</v>
       </c>
       <c r="W8" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.3</v>
+        <v>22.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.4</v>
+        <v>110</v>
       </c>
       <c r="AC8" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>3</v>
@@ -1915,13 +1915,13 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
         <v>17</v>
@@ -1930,46 +1930,46 @@
         <v>9</v>
       </c>
       <c r="AM8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP8" t="n">
         <v>5</v>
       </c>
-      <c r="AN8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AQ8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AV8" t="n">
         <v>8</v>
       </c>
-      <c r="AP8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AW8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX8" t="n">
         <v>24</v>
       </c>
-      <c r="AS8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>18</v>
-      </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -2085,52 +2085,52 @@
         <v>2.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH9" t="n">
         <v>2</v>
       </c>
       <c r="AI9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
         <v>1</v>
       </c>
       <c r="AL9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
       </c>
       <c r="AP9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
       </c>
       <c r="AR9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT9" t="n">
         <v>29</v>
@@ -2139,13 +2139,13 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY9" t="n">
         <v>7</v>
@@ -2154,7 +2154,7 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB9" t="n">
         <v>5</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -2189,100 +2189,100 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>0.182</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="I10" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="J10" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="K10" t="n">
-        <v>0.415</v>
+        <v>0.417</v>
       </c>
       <c r="L10" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="M10" t="n">
-        <v>38</v>
+        <v>38.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.34</v>
+        <v>0.334</v>
       </c>
       <c r="O10" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="P10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.798</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="S10" t="n">
         <v>32.7</v>
       </c>
       <c r="T10" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="U10" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W10" t="n">
         <v>8.4</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.1</v>
+        <v>108.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-6.8</v>
+        <v>-6.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>29</v>
       </c>
       <c r="AF10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH10" t="n">
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>2</v>
@@ -2291,22 +2291,22 @@
         <v>30</v>
       </c>
       <c r="AL10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
         <v>10</v>
       </c>
       <c r="AN10" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR10" t="n">
         <v>7</v>
@@ -2315,22 +2315,22 @@
         <v>27</v>
       </c>
       <c r="AT10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU10" t="n">
         <v>19</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW10" t="n">
         <v>9</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AZ10" t="n">
         <v>12</v>
@@ -2339,10 +2339,10 @@
         <v>9</v>
       </c>
       <c r="BB10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -2449,10 +2449,10 @@
         <v>-3.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>11</v>
@@ -2476,7 +2476,7 @@
         <v>10</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
         <v>21</v>
@@ -2485,28 +2485,28 @@
         <v>3</v>
       </c>
       <c r="AP11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ11" t="n">
         <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
         <v>5</v>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -2631,13 +2631,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
         <v>26</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
         <v>26</v>
@@ -2646,7 +2646,7 @@
         <v>4</v>
       </c>
       <c r="AI12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
         <v>23</v>
@@ -2658,22 +2658,22 @@
         <v>13</v>
       </c>
       <c r="AM12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
         <v>20</v>
@@ -2682,10 +2682,10 @@
         <v>28</v>
       </c>
       <c r="AU12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW12" t="n">
         <v>14</v>
@@ -2694,19 +2694,19 @@
         <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB12" t="n">
         <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -2813,19 +2813,19 @@
         <v>4.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
         <v>3</v>
@@ -2843,19 +2843,19 @@
         <v>20</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP13" t="n">
         <v>23</v>
       </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>19</v>
@@ -2864,7 +2864,7 @@
         <v>26</v>
       </c>
       <c r="AU13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV13" t="n">
         <v>5</v>
@@ -2882,13 +2882,13 @@
         <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -2917,103 +2917,103 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>4</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.8</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>84.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
       </c>
       <c r="L14" t="n">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="M14" t="n">
-        <v>34.8</v>
+        <v>34.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.429</v>
+        <v>0.424</v>
       </c>
       <c r="O14" t="n">
-        <v>17.3</v>
+        <v>16.8</v>
       </c>
       <c r="P14" t="n">
-        <v>20.6</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.842</v>
+        <v>0.841</v>
       </c>
       <c r="R14" t="n">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="T14" t="n">
-        <v>40.7</v>
+        <v>41.1</v>
       </c>
       <c r="U14" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.5</v>
       </c>
       <c r="W14" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AB14" t="n">
         <v>111.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>3</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>3</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
         <v>11</v>
@@ -3028,40 +3028,40 @@
         <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
       </c>
       <c r="AR14" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AS14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT14" t="n">
         <v>30</v>
       </c>
       <c r="AU14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AW14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>29</v>
@@ -3082,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -3099,52 +3099,52 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>0.769</v>
+        <v>0.75</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="J15" t="n">
-        <v>88.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="K15" t="n">
         <v>0.493</v>
       </c>
       <c r="L15" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="M15" t="n">
-        <v>31.7</v>
+        <v>31.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.396</v>
+        <v>0.389</v>
       </c>
       <c r="O15" t="n">
         <v>16.2</v>
       </c>
       <c r="P15" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="S15" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="T15" t="n">
         <v>48.8</v>
@@ -3153,28 +3153,28 @@
         <v>25.3</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.9</v>
       </c>
       <c r="W15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X15" t="n">
         <v>6.7</v>
       </c>
-      <c r="X15" t="n">
-        <v>6.6</v>
-      </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="n">
-        <v>115.7</v>
+        <v>114.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
         <v>1</v>
@@ -3192,46 +3192,46 @@
         <v>17</v>
       </c>
       <c r="AI15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO15" t="n">
         <v>19</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>20</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
       </c>
       <c r="AQ15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>14</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
         <v>24</v>
@@ -3243,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA15" t="n">
         <v>15</v>
@@ -3264,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -3281,64 +3281,64 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>0.455</v>
+        <v>0.4</v>
       </c>
       <c r="H16" t="n">
         <v>48.5</v>
       </c>
       <c r="I16" t="n">
-        <v>41.5</v>
+        <v>40.7</v>
       </c>
       <c r="J16" t="n">
-        <v>92.40000000000001</v>
+        <v>91</v>
       </c>
       <c r="K16" t="n">
-        <v>0.45</v>
+        <v>0.447</v>
       </c>
       <c r="L16" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="M16" t="n">
-        <v>30.7</v>
+        <v>31.3</v>
       </c>
       <c r="N16" t="n">
-        <v>0.331</v>
+        <v>0.332</v>
       </c>
       <c r="O16" t="n">
-        <v>13.3</v>
+        <v>13.6</v>
       </c>
       <c r="P16" t="n">
-        <v>17.1</v>
+        <v>17.5</v>
       </c>
       <c r="Q16" t="n">
         <v>0.777</v>
       </c>
       <c r="R16" t="n">
-        <v>10.7</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="T16" t="n">
-        <v>46.1</v>
+        <v>46</v>
       </c>
       <c r="U16" t="n">
-        <v>26.8</v>
+        <v>26.2</v>
       </c>
       <c r="V16" t="n">
-        <v>14.5</v>
+        <v>15.2</v>
       </c>
       <c r="W16" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="X16" t="n">
         <v>5.2</v>
@@ -3347,49 +3347,49 @@
         <v>6.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>17.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>106.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.4</v>
+        <v>-2.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AG16" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AH16" t="n">
         <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN16" t="n">
         <v>27</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>28</v>
@@ -3401,40 +3401,40 @@
         <v>12</v>
       </c>
       <c r="AR16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT16" t="n">
         <v>10</v>
       </c>
-      <c r="AS16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>9</v>
-      </c>
       <c r="AU16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA16" t="n">
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -3541,22 +3541,22 @@
         <v>-1.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
         <v>11</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
         <v>4</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3571,19 +3571,19 @@
         <v>12</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
         <v>7</v>
@@ -3592,19 +3592,19 @@
         <v>18</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>29</v>
       </c>
       <c r="AW17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AZ17" t="n">
         <v>19</v>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -3645,94 +3645,94 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
         <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>44.7</v>
+        <v>45</v>
       </c>
       <c r="J18" t="n">
-        <v>90.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.493</v>
+        <v>0.494</v>
       </c>
       <c r="L18" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="M18" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.413</v>
+        <v>0.411</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="P18" t="n">
-        <v>20.1</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.751</v>
+        <v>0.758</v>
       </c>
       <c r="R18" t="n">
         <v>10.6</v>
       </c>
       <c r="S18" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="T18" t="n">
         <v>47.4</v>
       </c>
       <c r="U18" t="n">
-        <v>26.6</v>
+        <v>26.2</v>
       </c>
       <c r="V18" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W18" t="n">
         <v>9.4</v>
       </c>
       <c r="X18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y18" t="n">
         <v>5.2</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>5</v>
       </c>
       <c r="Z18" t="n">
         <v>19.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>120.9</v>
+        <v>121.9</v>
       </c>
       <c r="AC18" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE18" t="n">
         <v>3</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>2</v>
       </c>
       <c r="AF18" t="n">
         <v>3</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH18" t="n">
         <v>17</v>
@@ -3741,13 +3741,13 @@
         <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM18" t="n">
         <v>4</v>
@@ -3756,16 +3756,16 @@
         <v>2</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>9</v>
@@ -3774,7 +3774,7 @@
         <v>6</v>
       </c>
       <c r="AU18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV18" t="n">
         <v>20</v>
@@ -3783,13 +3783,13 @@
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA18" t="n">
         <v>26</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -3827,91 +3827,91 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0.273</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="J19" t="n">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L19" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="M19" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.328</v>
+        <v>0.337</v>
       </c>
       <c r="O19" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="P19" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.752</v>
+        <v>0.743</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>33.5</v>
+        <v>33.2</v>
       </c>
       <c r="T19" t="n">
-        <v>45.2</v>
+        <v>44.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="V19" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W19" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="X19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y19" t="n">
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AA19" t="n">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>108.6</v>
+        <v>108.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>26</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG19" t="n">
         <v>27</v>
@@ -3920,31 +3920,31 @@
         <v>8</v>
       </c>
       <c r="AI19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK19" t="n">
         <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM19" t="n">
         <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3953,28 +3953,28 @@
         <v>26</v>
       </c>
       <c r="AT19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU19" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AV19" t="n">
         <v>15</v>
       </c>
       <c r="AW19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AX19" t="n">
         <v>16</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA19" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BB19" t="n">
         <v>22</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -4009,121 +4009,121 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4</v>
+        <v>0.444</v>
       </c>
       <c r="H20" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I20" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="J20" t="n">
-        <v>85.8</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
         <v>10.2</v>
       </c>
       <c r="M20" t="n">
-        <v>31.4</v>
+        <v>31.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.325</v>
+        <v>0.322</v>
       </c>
       <c r="O20" t="n">
-        <v>18.2</v>
+        <v>18.9</v>
       </c>
       <c r="P20" t="n">
-        <v>25.5</v>
+        <v>26.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>37</v>
+        <v>37.1</v>
       </c>
       <c r="T20" t="n">
         <v>48.4</v>
       </c>
       <c r="U20" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="V20" t="n">
-        <v>16.1</v>
+        <v>16.7</v>
       </c>
       <c r="W20" t="n">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="X20" t="n">
         <v>3.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z20" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.8</v>
+        <v>22.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI20" t="n">
         <v>24</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>25</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AN20" t="n">
         <v>30</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ20" t="n">
         <v>28</v>
@@ -4132,37 +4132,37 @@
         <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT20" t="n">
         <v>4</v>
       </c>
       <c r="AU20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW20" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AX20" t="n">
         <v>25</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -4191,94 +4191,94 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21" t="n">
-        <v>0.417</v>
+        <v>0.455</v>
       </c>
       <c r="H21" t="n">
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>38.1</v>
+        <v>37.5</v>
       </c>
       <c r="J21" t="n">
-        <v>85.3</v>
+        <v>84.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0.446</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M21" t="n">
         <v>27.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="O21" t="n">
-        <v>15.1</v>
+        <v>15.5</v>
       </c>
       <c r="P21" t="n">
-        <v>20.4</v>
+        <v>21.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.739</v>
+        <v>0.734</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S21" t="n">
-        <v>35.3</v>
+        <v>35.7</v>
       </c>
       <c r="T21" t="n">
-        <v>46.1</v>
+        <v>46.4</v>
       </c>
       <c r="U21" t="n">
         <v>22.2</v>
       </c>
       <c r="V21" t="n">
-        <v>15.3</v>
+        <v>15.8</v>
       </c>
       <c r="W21" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X21" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
         <v>17</v>
@@ -4287,64 +4287,64 @@
         <v>30</v>
       </c>
       <c r="AJ21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM21" t="n">
         <v>30</v>
       </c>
       <c r="AN21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
         <v>9</v>
       </c>
       <c r="AS21" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU21" t="n">
         <v>28</v>
       </c>
       <c r="AV21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW21" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
       </c>
       <c r="BC21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -4373,94 +4373,94 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>48</v>
       </c>
       <c r="I22" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J22" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.447</v>
+        <v>0.449</v>
       </c>
       <c r="L22" t="n">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="M22" t="n">
-        <v>38.3</v>
+        <v>39</v>
       </c>
       <c r="N22" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="O22" t="n">
         <v>15.1</v>
       </c>
       <c r="P22" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.731</v>
+        <v>0.726</v>
       </c>
       <c r="R22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="S22" t="n">
-        <v>37.9</v>
+        <v>38.4</v>
       </c>
       <c r="T22" t="n">
-        <v>45.1</v>
+        <v>45.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V22" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X22" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="AA22" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>104.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="AD22" t="n">
         <v>19</v>
       </c>
-      <c r="AB22" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>-6.8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>10</v>
-      </c>
       <c r="AE22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>17</v>
@@ -4472,22 +4472,22 @@
         <v>26</v>
       </c>
       <c r="AK22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP22" t="n">
         <v>20</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>21</v>
       </c>
       <c r="AQ22" t="n">
         <v>26</v>
@@ -4496,37 +4496,37 @@
         <v>29</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU22" t="n">
         <v>29</v>
       </c>
       <c r="AV22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>12</v>
       </c>
       <c r="AY22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB22" t="n">
         <v>28</v>
       </c>
       <c r="BC22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -4633,10 +4633,10 @@
         <v>-4.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
         <v>11</v>
@@ -4648,7 +4648,7 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="n">
         <v>6</v>
@@ -4669,7 +4669,7 @@
         <v>17</v>
       </c>
       <c r="AP23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ23" t="n">
         <v>4</v>
@@ -4690,22 +4690,22 @@
         <v>5</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>1</v>
       </c>
       <c r="BA23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
         <v>2.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4827,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>8</v>
@@ -4839,7 +4839,7 @@
         <v>10</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM24" t="n">
         <v>18</v>
@@ -4854,13 +4854,13 @@
         <v>15</v>
       </c>
       <c r="AQ24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR24" t="n">
         <v>16</v>
       </c>
       <c r="AS24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT24" t="n">
         <v>5</v>
@@ -4872,7 +4872,7 @@
         <v>28</v>
       </c>
       <c r="AW24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -4997,19 +4997,19 @@
         <v>3.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF25" t="n">
         <v>3</v>
       </c>
       <c r="AG25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI25" t="n">
         <v>16</v>
@@ -5018,7 +5018,7 @@
         <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -5030,7 +5030,7 @@
         <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP25" t="n">
         <v>27</v>
@@ -5057,13 +5057,13 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>22</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>23</v>
       </c>
       <c r="BA25" t="n">
         <v>16</v>
@@ -5084,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -5101,157 +5101,157 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="n">
-        <v>0.636</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="J26" t="n">
-        <v>91.7</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="L26" t="n">
-        <v>16.7</v>
+        <v>16.1</v>
       </c>
       <c r="M26" t="n">
-        <v>42.8</v>
+        <v>42.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.391</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>24.3</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="R26" t="n">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S26" t="n">
-        <v>35.3</v>
+        <v>36.2</v>
       </c>
       <c r="T26" t="n">
-        <v>43.8</v>
+        <v>44.4</v>
       </c>
       <c r="U26" t="n">
-        <v>22.7</v>
+        <v>22.2</v>
       </c>
       <c r="V26" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="W26" t="n">
         <v>8.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>118.6</v>
+        <v>117.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
         <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AO26" t="n">
         <v>6</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>5</v>
       </c>
       <c r="AP26" t="n">
         <v>7</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT26" t="n">
         <v>15</v>
       </c>
-      <c r="AT26" t="n">
-        <v>21</v>
-      </c>
       <c r="AU26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV26" t="n">
         <v>2</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ26" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC26" t="n">
         <v>11</v>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -5283,115 +5283,115 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>0.417</v>
+        <v>0.455</v>
       </c>
       <c r="H27" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="J27" t="n">
-        <v>87.90000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="K27" t="n">
-        <v>0.471</v>
+        <v>0.467</v>
       </c>
       <c r="L27" t="n">
-        <v>11.8</v>
+        <v>11.2</v>
       </c>
       <c r="M27" t="n">
-        <v>31.4</v>
+        <v>30.8</v>
       </c>
       <c r="N27" t="n">
-        <v>0.377</v>
+        <v>0.363</v>
       </c>
       <c r="O27" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="P27" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R27" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="S27" t="n">
-        <v>33.8</v>
+        <v>33.7</v>
       </c>
       <c r="T27" t="n">
-        <v>44</v>
+        <v>44.2</v>
       </c>
       <c r="U27" t="n">
-        <v>25.5</v>
+        <v>24.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W27" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>114.8</v>
+        <v>113.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.3</v>
+        <v>-7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>16</v>
       </c>
-      <c r="AF27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>18</v>
-      </c>
       <c r="AK27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
         <v>2</v>
@@ -5403,37 +5403,37 @@
         <v>27</v>
       </c>
       <c r="AR27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU27" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AX27" t="n">
         <v>10</v>
       </c>
-      <c r="AW27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>11</v>
-      </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
         <v>15</v>
       </c>
       <c r="BA27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB27" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
         <v>29</v>
@@ -5448,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -5543,10 +5543,10 @@
         <v>-0.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>11</v>
@@ -5555,7 +5555,7 @@
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI28" t="n">
         <v>9</v>
@@ -5570,13 +5570,13 @@
         <v>23</v>
       </c>
       <c r="AM28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO28" t="n">
         <v>25</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>26</v>
@@ -5585,7 +5585,7 @@
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS28" t="n">
         <v>10</v>
@@ -5600,19 +5600,19 @@
         <v>1</v>
       </c>
       <c r="AW28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -5725,13 +5725,13 @@
         <v>-1.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
         <v>29</v>
       </c>
       <c r="AF29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG29" t="n">
         <v>29</v>
@@ -5752,7 +5752,7 @@
         <v>4</v>
       </c>
       <c r="AM29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN29" t="n">
         <v>14</v>
@@ -5761,7 +5761,7 @@
         <v>16</v>
       </c>
       <c r="AP29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ29" t="n">
         <v>11</v>
@@ -5770,19 +5770,19 @@
         <v>17</v>
       </c>
       <c r="AS29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX29" t="n">
         <v>6</v>
@@ -5794,13 +5794,13 @@
         <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>18</v>
       </c>
       <c r="BC29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -5907,28 +5907,28 @@
         <v>3.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF30" t="n">
         <v>3</v>
       </c>
       <c r="AG30" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ30" t="n">
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>3</v>
@@ -5937,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO30" t="n">
         <v>29</v>
@@ -5952,16 +5952,16 @@
         <v>5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
       </c>
       <c r="AU30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>30</v>
@@ -5970,13 +5970,13 @@
         <v>8</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB30" t="n">
         <v>20</v>
@@ -5994,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
@@ -6089,16 +6089,16 @@
         <v>-0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>26</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH31" t="n">
         <v>17</v>
@@ -6107,22 +6107,22 @@
         <v>2</v>
       </c>
       <c r="AJ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK31" t="n">
         <v>7</v>
       </c>
       <c r="AL31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP31" t="n">
         <v>2</v>
@@ -6131,10 +6131,10 @@
         <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT31" t="n">
         <v>25</v>
@@ -6146,7 +6146,7 @@
         <v>5</v>
       </c>
       <c r="AW31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>29</v>
@@ -6158,7 +6158,7 @@
         <v>30</v>
       </c>
       <c r="BA31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB31" t="n">
         <v>2</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-13-2020-21</t>
+          <t>2021-01-13</t>
         </is>
       </c>
     </row>
